--- a/data/trans_dic/LAWTONB_2R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3468354387256383</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4655717599824958</v>
+        <v>0.4655717599824957</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3009902197795294</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2173246217542623</v>
+        <v>0.2167575189339059</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1655059217663707</v>
+        <v>0.174559434378914</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1405890311911286</v>
+        <v>0.1382293690252769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2719436469616569</v>
+        <v>0.2727881126141755</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2313921730771464</v>
+        <v>0.2344807055721289</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2991795167423285</v>
+        <v>0.3023591697850069</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2730276379425632</v>
+        <v>0.2706150484714808</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4158158663334723</v>
+        <v>0.4168021092931434</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2459395466147426</v>
+        <v>0.2481373341337277</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2609796284036512</v>
+        <v>0.2619410325673668</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2350380248506905</v>
+        <v>0.2322695470010437</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3663260959125673</v>
+        <v>0.3651404730263808</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3860334661745276</v>
+        <v>0.3805290529422469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3276586750435495</v>
+        <v>0.3272156674341927</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2670755536478244</v>
+        <v>0.2692965060938925</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3928242448354599</v>
+        <v>0.3909440197500846</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3873763760413136</v>
+        <v>0.3835072758924601</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4517095231683814</v>
+        <v>0.4482149321633686</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4265419417880829</v>
+        <v>0.4236018253769209</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5164045938383369</v>
+        <v>0.5116003544522529</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3584103176965207</v>
+        <v>0.3636788574767592</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3706609800835706</v>
+        <v>0.3710038606398133</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3337734702394471</v>
+        <v>0.3399997998143492</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.446535353776483</v>
+        <v>0.4430278154885578</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3152120380007785</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3470133254823569</v>
+        <v>0.3470133254823568</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2598859380583557</v>
+        <v>0.2580348634893383</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2257007821222186</v>
+        <v>0.222335295628703</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1916831066313379</v>
+        <v>0.1931634384285075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.204859310296128</v>
+        <v>0.2034392874027856</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2978820851428706</v>
+        <v>0.3035139980135162</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3916053842868078</v>
+        <v>0.3985430154110149</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2963486631119601</v>
+        <v>0.2974803953525143</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3654804788827315</v>
+        <v>0.3748733622322034</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3047141670541406</v>
+        <v>0.3039799024158303</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3377322058085436</v>
+        <v>0.3375924512732523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2686425058181855</v>
+        <v>0.2653477094117542</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3133806801701045</v>
+        <v>0.311864460014579</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4053866415145361</v>
+        <v>0.4112915402857004</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3708273701460636</v>
+        <v>0.3718210517335683</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3181408489563584</v>
+        <v>0.3132571576738486</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3133996013677641</v>
+        <v>0.3108629371926314</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4490962876702897</v>
+        <v>0.4487732966651072</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5429444372338369</v>
+        <v>0.53773926206568</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4426533445519831</v>
+        <v>0.4377992000497223</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4632247057737711</v>
+        <v>0.4657856940921709</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4101169488651219</v>
+        <v>0.4128896537052855</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4428450671474066</v>
+        <v>0.4441127054574224</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3664260281257433</v>
+        <v>0.367861462221368</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3813156224529886</v>
+        <v>0.3841230933687675</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2273049612520511</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2038329963635564</v>
+        <v>0.2038329963635563</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3420270693811827</v>
@@ -969,7 +969,7 @@
         <v>0.3121210079212163</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3006445217628342</v>
+        <v>0.3006445217628343</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1358009717272579</v>
+        <v>0.1330757222756276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1820233789512987</v>
+        <v>0.1797987886397188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1514536136091184</v>
+        <v>0.1586886749950686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.148353442161234</v>
+        <v>0.1537476532810893</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2667530018142169</v>
+        <v>0.2664232714874331</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2989580124544953</v>
+        <v>0.2857506917456004</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2969129487127763</v>
+        <v>0.2946086488146413</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3346587421892599</v>
+        <v>0.3367723001514938</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2262772182470011</v>
+        <v>0.2239603058879263</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2700120333599793</v>
+        <v>0.2665360278236837</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2560751589534286</v>
+        <v>0.2538635792645888</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2600759043148321</v>
+        <v>0.2596118618108126</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.300779923920735</v>
+        <v>0.2915498157375561</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3821661197481213</v>
+        <v>0.3769913968019576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2991359562203204</v>
+        <v>0.3119802179111623</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2611461669002308</v>
+        <v>0.2722810916382811</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4275751123755977</v>
+        <v>0.4263707963022701</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4647608211784997</v>
+        <v>0.4618273019961361</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4702416916634096</v>
+        <v>0.469653516497019</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4519361027330284</v>
+        <v>0.4447232938880759</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3413753740902454</v>
+        <v>0.342809534221125</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4015518699033814</v>
+        <v>0.3894493718869318</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.379330210000632</v>
+        <v>0.3771609130256895</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3395172951899877</v>
+        <v>0.3458948278680127</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.3416164692432166</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3901226310374185</v>
+        <v>0.3901226310374186</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2911253225749863</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1477737075734673</v>
+        <v>0.142822167911886</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1953764061194979</v>
+        <v>0.1955747109272191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1185712895955791</v>
+        <v>0.1218767434518381</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1701167160344196</v>
+        <v>0.1704135198888417</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2804968336459587</v>
+        <v>0.2774265284921753</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2789885124343026</v>
+        <v>0.2765547603526944</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.274050849353109</v>
+        <v>0.2776301496641509</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3473709406047071</v>
+        <v>0.3475088248358832</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2460662364777808</v>
+        <v>0.2427377847182726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2614853043821131</v>
+        <v>0.2615493663081798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2281454861283029</v>
+        <v>0.2280860111547775</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2841015885566201</v>
+        <v>0.2807397317812788</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2737803189426928</v>
+        <v>0.2798948661377629</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3295865676393176</v>
+        <v>0.3413780537839147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2313692424882282</v>
+        <v>0.2335370725076359</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2533602311773404</v>
+        <v>0.2594270431555181</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4141849821672667</v>
+        <v>0.4093843664579819</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4004150620501946</v>
+        <v>0.4000640031856263</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4161149977028852</v>
+        <v>0.4109369514012594</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4346293540402253</v>
+        <v>0.4322261906553585</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3407800620851421</v>
+        <v>0.3373371166466678</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3533913486347284</v>
+        <v>0.35455534081877</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3170219133550221</v>
+        <v>0.3202839445534269</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3467268045897979</v>
+        <v>0.3456628031182918</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.226313164836029</v>
+        <v>0.2273905489297035</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.228255382775474</v>
+        <v>0.2285333646390411</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1787360360020671</v>
+        <v>0.1790318553672144</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2202914860407027</v>
+        <v>0.2210239877269374</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3066771923813669</v>
+        <v>0.3091955160175304</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3475762249137423</v>
+        <v>0.3481763183053287</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3208745113644059</v>
+        <v>0.3189387289006796</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3886350501782195</v>
+        <v>0.3892821838180633</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2839663798323573</v>
+        <v>0.2838048458762248</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3091962648391992</v>
+        <v>0.3077689444602403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2681313873976914</v>
+        <v>0.2660814686154976</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3207268002662697</v>
+        <v>0.3205222179205318</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3028448168486079</v>
+        <v>0.3053305863903671</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3085252517787235</v>
+        <v>0.308450760542425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.240743027232943</v>
+        <v>0.2418572840000608</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2745527401893122</v>
+        <v>0.2738753096692194</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3782483052958333</v>
+        <v>0.384093332958462</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4232204200611187</v>
+        <v>0.4222916346772128</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.394719043445698</v>
+        <v>0.3926505389474234</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4369645196111522</v>
+        <v>0.4373185801282437</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3385321764295615</v>
+        <v>0.3346412183309902</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3651658930548391</v>
+        <v>0.3606347514081517</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3188325168477419</v>
+        <v>0.3163489396928801</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3582726036959119</v>
+        <v>0.3588064208908613</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24990</v>
+        <v>24925</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23096</v>
+        <v>24359</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19223</v>
+        <v>18901</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>44412</v>
+        <v>44550</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>34601</v>
+        <v>35063</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>49899</v>
+        <v>50430</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>47341</v>
+        <v>46922</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>78923</v>
+        <v>79110</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>65057</v>
+        <v>65638</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>79947</v>
+        <v>80241</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>72891</v>
+        <v>72033</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>129356</v>
+        <v>128937</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44390</v>
+        <v>43757</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45724</v>
+        <v>45662</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36518</v>
+        <v>36822</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>64154</v>
+        <v>63847</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>57926</v>
+        <v>57348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>75339</v>
+        <v>74756</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>73959</v>
+        <v>73449</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>98015</v>
+        <v>97103</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>94808</v>
+        <v>96202</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>113546</v>
+        <v>113651</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>103511</v>
+        <v>105442</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>157679</v>
+        <v>156441</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37914</v>
+        <v>37644</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34956</v>
+        <v>34435</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31616</v>
+        <v>31861</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36507</v>
+        <v>36254</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>54417</v>
+        <v>55446</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>74961</v>
+        <v>76289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>64949</v>
+        <v>65197</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>87981</v>
+        <v>90242</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>100119</v>
+        <v>99878</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>116956</v>
+        <v>116908</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>103187</v>
+        <v>101921</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>131285</v>
+        <v>130649</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59141</v>
+        <v>60003</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>57433</v>
+        <v>57587</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52474</v>
+        <v>51669</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>55849</v>
+        <v>55397</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>82041</v>
+        <v>81982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>103930</v>
+        <v>102934</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>97013</v>
+        <v>95949</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>111511</v>
+        <v>112127</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>134751</v>
+        <v>135662</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>153356</v>
+        <v>153795</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>140746</v>
+        <v>141297</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>159745</v>
+        <v>160921</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14174</v>
+        <v>13889</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18857</v>
+        <v>18627</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17422</v>
+        <v>18255</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23463</v>
+        <v>24316</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36238</v>
+        <v>36194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>42159</v>
+        <v>40296</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>42339</v>
+        <v>42010</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>58378</v>
+        <v>58747</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>54357</v>
+        <v>53800</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>66050</v>
+        <v>65199</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>65973</v>
+        <v>65403</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>86501</v>
+        <v>86346</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31393</v>
+        <v>30429</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39592</v>
+        <v>39056</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34411</v>
+        <v>35889</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41302</v>
+        <v>43063</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>58086</v>
+        <v>57922</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>65540</v>
+        <v>65126</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>67055</v>
+        <v>66971</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>78836</v>
+        <v>77578</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>82006</v>
+        <v>82350</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>98226</v>
+        <v>95266</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>97727</v>
+        <v>97168</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>112923</v>
+        <v>115044</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20277</v>
+        <v>19598</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>31575</v>
+        <v>31607</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20705</v>
+        <v>21282</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35815</v>
+        <v>35877</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>58561</v>
+        <v>57920</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>68003</v>
+        <v>67410</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>66534</v>
+        <v>67403</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>101865</v>
+        <v>101906</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>85138</v>
+        <v>83986</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>105996</v>
+        <v>106022</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>95228</v>
+        <v>95203</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>143124</v>
+        <v>141431</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37567</v>
+        <v>38406</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53265</v>
+        <v>55171</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40401</v>
+        <v>40780</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53340</v>
+        <v>54618</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>86472</v>
+        <v>85470</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>97601</v>
+        <v>97516</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>101025</v>
+        <v>99768</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>127454</v>
+        <v>126749</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>117908</v>
+        <v>116717</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>143252</v>
+        <v>143724</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>132325</v>
+        <v>133687</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>174674</v>
+        <v>174138</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>113715</v>
+        <v>114256</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>127740</v>
+        <v>127896</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>105692</v>
+        <v>105867</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>156453</v>
+        <v>156973</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>207572</v>
+        <v>209277</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>258240</v>
+        <v>258686</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>249618</v>
+        <v>248112</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>349079</v>
+        <v>349660</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>334884</v>
+        <v>334693</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>402763</v>
+        <v>400904</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>367141</v>
+        <v>364334</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>515865</v>
+        <v>515536</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>152169</v>
+        <v>153418</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>172662</v>
+        <v>172620</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>142358</v>
+        <v>143017</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>194989</v>
+        <v>194508</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>256014</v>
+        <v>259970</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>314442</v>
+        <v>313752</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>307064</v>
+        <v>305455</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>392489</v>
+        <v>392807</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>399234</v>
+        <v>394645</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>475669</v>
+        <v>469767</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>436564</v>
+        <v>433164</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>576254</v>
+        <v>577113</v>
       </c>
     </row>
     <row r="24">
